--- a/www.eia.gov/electricity/monthly/xls/table_a_8_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_a_8_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table A.8.B. Relative Standard Error for Average Price of Electricity to Ultimate Customers</t>
   </si>
   <si>
-    <t>by End-Use Sector, Census Division, and State, Year-to-Date through October 2016</t>
+    <t>by End-Use Sector, Census Division, and State, Year-to-Date through November 2016</t>
   </si>
   <si>
     <t>Census Region and State</t>
@@ -1197,7 +1197,7 @@
         <v>0.13</v>
       </c>
       <c r="C4" s="6">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="D4" s="6">
         <v>3</v>
@@ -1214,7 +1214,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="8">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="C5" s="8">
         <v>1</v>
@@ -1234,7 +1234,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="8">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="C6" s="8">
         <v>1</v>
@@ -1254,13 +1254,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="8">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
       </c>
       <c r="D7" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" s="8">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="8">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="C8" s="8">
         <v>1</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="8">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1394,10 +1394,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="8">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="C14" s="8">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="6">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1434,7 +1434,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="8">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="C16" s="8">
         <v>1</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="8">
-        <v>0.49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1474,7 +1474,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="8">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="C18" s="8">
         <v>2</v>
@@ -1514,7 +1514,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="8">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="C20" s="8">
         <v>3</v>
@@ -1534,7 +1534,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="6">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="C21" s="6">
         <v>2</v>
@@ -1594,7 +1594,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="8">
-        <v>1</v>
+        <v>0.47</v>
       </c>
       <c r="C24" s="8">
         <v>4</v>
@@ -1614,7 +1614,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="8">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="C25" s="8">
         <v>1</v>
@@ -1694,10 +1694,10 @@
         <v>33</v>
       </c>
       <c r="B29" s="6">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C29" s="6">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="D29" s="6">
         <v>1</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="8">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="D31" s="8">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="8">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1754,7 +1754,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="8">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="C32" s="8">
         <v>1</v>
@@ -1794,10 +1794,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="8">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="C34" s="8">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="D34" s="8">
         <v>4</v>
@@ -1854,7 +1854,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="8">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="C37" s="8">
         <v>1</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="8">
-        <v>0.49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1974,7 +1974,7 @@
         <v>47</v>
       </c>
       <c r="B43" s="8">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="C43" s="8">
         <v>2</v>
@@ -1994,7 +1994,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="6">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="C44" s="6">
         <v>1</v>
@@ -2074,7 +2074,7 @@
         <v>52</v>
       </c>
       <c r="B48" s="8">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="C48" s="8">
         <v>1</v>
@@ -2094,7 +2094,7 @@
         <v>53</v>
       </c>
       <c r="B49" s="6">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="C49" s="6">
         <v>2</v>
@@ -2114,13 +2114,13 @@
         <v>54</v>
       </c>
       <c r="B50" s="8">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="C50" s="8">
         <v>2</v>
       </c>
       <c r="D50" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E50" s="8">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>55</v>
       </c>
       <c r="B51" s="8">
-        <v>0.39</v>
+        <v>1</v>
       </c>
       <c r="C51" s="8">
         <v>5</v>
@@ -2154,7 +2154,7 @@
         <v>56</v>
       </c>
       <c r="B52" s="8">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="C52" s="8">
         <v>4</v>
@@ -2194,7 +2194,7 @@
         <v>58</v>
       </c>
       <c r="B54" s="8">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="C54" s="8">
         <v>3</v>
@@ -2234,7 +2234,7 @@
         <v>60</v>
       </c>
       <c r="B56" s="8">
-        <v>0.39</v>
+        <v>1</v>
       </c>
       <c r="C56" s="8">
         <v>5</v>
@@ -2294,7 +2294,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="8">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="C59" s="8">
         <v>1</v>
@@ -2314,7 +2314,7 @@
         <v>64</v>
       </c>
       <c r="B60" s="8">
-        <v>0.44</v>
+        <v>0.39</v>
       </c>
       <c r="C60" s="8">
         <v>4</v>
@@ -2334,7 +2334,7 @@
         <v>65</v>
       </c>
       <c r="B61" s="8">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="C61" s="8">
         <v>3</v>
